--- a/MesAdmin/Template/A1/奖惩信息.xlsx
+++ b/MesAdmin/Template/A1/奖惩信息.xlsx
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关于现场5S的通报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +85,10 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩罚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +475,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -534,16 +534,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -552,7 +552,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>8</v>
@@ -563,7 +563,7 @@
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/MesAdmin/Template/A1/奖惩信息.xlsx
+++ b/MesAdmin/Template/A1/奖惩信息.xlsx
@@ -14,16 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>员工账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>岗位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +77,6 @@
   </si>
   <si>
     <t>010005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -472,29 +464,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,53 +508,47 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>50</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="6">
+        <v>44562</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="6">
-        <v>44562</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
